--- a/SJ/GEF/GEF_Allometry_Reproduce_Emily.xlsx
+++ b/SJ/GEF/GEF_Allometry_Reproduce_Emily.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMx_삼성바이오\2. GER 확인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NONMEM\SJ\GEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84CA82-AA7D-451D-BFCA-35418B56D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C208541-DF3D-4B13-9D3A-BDBA95303657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{10CBAD69-7596-48E5-9456-43C77C7D4F2F}"/>
+    <workbookView xWindow="10320" yWindow="2310" windowWidth="24270" windowHeight="12855" xr2:uid="{10CBAD69-7596-48E5-9456-43C77C7D4F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="SB15" sheetId="3" r:id="rId1"/>
@@ -300,13 +300,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="186" formatCode="0.0.E+00"/>
-    <numFmt numFmtId="190" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0.E+00"/>
+    <numFmt numFmtId="179" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="187" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +357,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -494,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,10 +511,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -522,7 +529,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -530,84 +537,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,36 +952,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804C00B-131C-4559-9CD2-A41D1FBD3EB0}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H20" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="10.296875" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
@@ -987,50 +991,50 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="33" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="5">
@@ -1041,98 +1045,98 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="26" t="s">
+    <row r="5" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="30" t="str">
+      <c r="O5" s="24" t="str">
         <f>F3</f>
         <v>SB15 (Aflibercept)</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="15">
         <v>115000</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="20">
-        <v>1000000000</v>
-      </c>
-      <c r="F6" s="21">
-        <v>840</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="17">
+        <v>2000000000000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2444.096</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="23">
-        <v>430</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="H6" s="20">
+        <v>1.5150000000000001E-3</v>
+      </c>
+      <c r="I6" s="21">
         <f>F6*H6*24</f>
-        <v>8668800</v>
-      </c>
-      <c r="J6" s="22">
+        <v>88.867330559999999</v>
+      </c>
+      <c r="J6" s="19">
         <f>I6/$P$5</f>
-        <v>75.380869565217395</v>
-      </c>
-      <c r="K6" s="22">
+        <v>7.7275939617391304E-4</v>
+      </c>
+      <c r="K6" s="19">
         <f>J6*10^(-9)</f>
-        <v>7.5380869565217403E-8</v>
-      </c>
-      <c r="L6" s="22">
+        <v>7.7275939617391312E-13</v>
+      </c>
+      <c r="L6" s="19">
         <f>K6*$P$4</f>
-        <v>4.539435965217392E+16</v>
-      </c>
-      <c r="M6" s="25">
+        <v>465355708375.93048</v>
+      </c>
+      <c r="M6" s="22">
         <f>L6/E6</f>
-        <v>45394359.652173921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>0.23267785418796524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
       <c r="H7" s="2"/>
@@ -1143,21 +1147,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L10" s="13"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>2344173.69162344/10^6</f>
+        <v>2.3441736916234399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F14" s="36">
+        <f>2344173.69162344/10^6</f>
+        <v>2.3441736916234399</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1180,24 +1185,24 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -1211,8 +1216,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1253,9 +1258,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7">
@@ -1295,14 +1300,14 @@
         <f>L3*$I$6</f>
         <v>14125918957714.283</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="12">
         <f>M3/E3</f>
         <v>1412.5918957714284</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7">
         <v>12500000000000</v>
       </c>
@@ -1340,12 +1345,12 @@
         <f>L4*$I$6</f>
         <v>41098807954285.719</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="12">
         <f>M4/E4</f>
         <v>205.49403977142859</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" s="2"/>
@@ -1353,7 +1358,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1373,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1385,11 +1390,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1423,11 +1425,10 @@
       <c r="L9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="7">
@@ -1461,11 +1462,11 @@
         <f>K10/J10</f>
         <v>10992366412.213741</v>
       </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="7">
         <v>12500000000000</v>
       </c>
@@ -1497,11 +1498,11 @@
         <f t="shared" ref="L11:L16" si="1">K11/J11</f>
         <v>10942408376.96335</v>
       </c>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="7">
         <v>4440000000000</v>
       </c>
@@ -1533,12 +1534,12 @@
         <f t="shared" si="1"/>
         <v>10937500000</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="3"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="7">
         <v>4440000000000</v>
       </c>
@@ -1570,11 +1571,11 @@
         <f t="shared" si="1"/>
         <v>10950570342.205322</v>
       </c>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="7">
         <v>4440000000000</v>
       </c>
@@ -1606,11 +1607,11 @@
         <f t="shared" si="1"/>
         <v>10944881889.763779</v>
       </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7">
@@ -1644,11 +1645,11 @@
         <f t="shared" si="1"/>
         <v>10960451977.401131</v>
       </c>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="7">
         <v>1100000000000</v>
       </c>
@@ -1680,13 +1681,12 @@
         <f t="shared" si="1"/>
         <v>10957854406.130268</v>
       </c>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="3"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="3"/>
     </row>
   </sheetData>
@@ -1710,13 +1710,13 @@
       <selection activeCell="I3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="8:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H3" s="1">
         <v>637000</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>14400000000000</v>
       </c>
     </row>
-    <row r="6" spans="8:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="8:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>56000</v>
       </c>

--- a/SJ/GEF/GEF_Allometry_Reproduce_Emily.xlsx
+++ b/SJ/GEF/GEF_Allometry_Reproduce_Emily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NONMEM\SJ\GEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C208541-DF3D-4B13-9D3A-BDBA95303657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B7AB6-D2CC-4708-B217-9ED1EF3EB9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2310" windowWidth="24270" windowHeight="12855" xr2:uid="{10CBAD69-7596-48E5-9456-43C77C7D4F2F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{10CBAD69-7596-48E5-9456-43C77C7D4F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="SB15" sheetId="3" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0.E+00"/>
     <numFmt numFmtId="179" formatCode="0.00.E+00"/>
-    <numFmt numFmtId="187" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -583,6 +583,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,7 +955,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H19:H20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,10 +1003,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1021,16 +1021,16 @@
       <c r="F4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="26" t="s">
         <v>52</v>
       </c>
@@ -1046,8 +1046,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1152,14 +1152,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <f>2344173.69162344/10^6</f>
-        <v>2.3441736916234399</v>
-      </c>
-    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F14" s="36">
+      <c r="F14" s="27">
         <f>2344173.69162344/10^6</f>
         <v>2.3441736916234399</v>
       </c>
@@ -1217,7 +1211,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1259,8 +1253,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7">
@@ -1306,8 +1300,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7">
         <v>12500000000000</v>
       </c>
@@ -1391,7 +1385,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1427,8 +1421,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="7">
@@ -1465,8 +1459,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="7">
         <v>12500000000000</v>
       </c>
@@ -1501,8 +1495,8 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7">
         <v>4440000000000</v>
       </c>
@@ -1538,8 +1532,8 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="7">
         <v>4440000000000</v>
       </c>
@@ -1574,8 +1568,8 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="7">
         <v>4440000000000</v>
       </c>
@@ -1610,8 +1604,8 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7">
@@ -1648,8 +1642,8 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="7">
         <v>1100000000000</v>
       </c>
